--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909226E2-9F0A-4A65-9E89-27A4C3A1098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631C4D43-4A0D-45F2-9657-ACF6D78BB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="3300" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2205" windowWidth="20850" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -123,13 +123,21 @@
   </si>
   <si>
     <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>#一区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +178,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -209,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -233,6 +248,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -541,23 +560,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +600,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -605,7 +624,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -630,68 +649,51 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="9">
-        <v>30002</v>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8">
+        <v>30005</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9">
-        <v>30004</v>
-      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
-        <v>4</v>
+        <v>1001</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -699,17 +701,19 @@
       <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
+        <v>21001</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
-        <v>5</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -718,16 +722,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
-        <v>6</v>
+        <v>1003</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -736,16 +742,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="G9" s="9">
+        <v>21003</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
-        <v>7</v>
+        <v>1004</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -754,36 +762,34 @@
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8">
-        <v>30005</v>
-      </c>
+      <c r="B11" s="9">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>9</v>
+      <c r="B12" s="9">
+        <v>1006</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
@@ -799,21 +805,121 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B13" s="9">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -830,9 +936,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -878,7 +984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="5">
         <v>300</v>
       </c>
@@ -921,7 +1027,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="5">
         <v>301</v>
       </c>
@@ -941,7 +1047,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="5">
         <v>302</v>
       </c>
@@ -961,7 +1067,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="5">
         <v>303</v>
       </c>
@@ -981,7 +1087,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="5">
         <v>304</v>
       </c>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631C4D43-4A0D-45F2-9657-ACF6D78BB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2205" windowWidth="20850" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -71,6 +78,15 @@
     <t>外网端口</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>#一区</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -89,15 +105,18 @@
     <t>Match</t>
   </si>
   <si>
+    <t>UnitCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
     <t>Map</t>
   </si>
   <si>
     <t>Map1</t>
   </si>
   <si>
-    <t>Map2</t>
-  </si>
-  <si>
     <t>RouterManager</t>
   </si>
   <si>
@@ -114,30 +133,19 @@
   </si>
   <si>
     <t>Router04</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>UnitCache</t>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-  </si>
-  <si>
-    <t>#一区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,21 +180,137 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +329,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,24 +512,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,30 +778,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -554,19 +1124,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
@@ -576,7 +1146,7 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +1170,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +1194,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,7 +1218,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -659,16 +1229,16 @@
         <v>1000</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G4" s="8">
         <v>30005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -679,116 +1249,116 @@
         <v>1000</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+    <row r="7" spans="2:7">
+      <c r="B7" s="5">
         <v>1001</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5">
         <v>21001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+    <row r="8" spans="2:7">
+      <c r="B8" s="5">
         <v>1002</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5">
         <v>21002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+    <row r="9" s="6" customFormat="1" spans="2:7">
+      <c r="B9" s="5">
         <v>1003</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5">
         <v>21003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
+    <row r="10" spans="2:7">
+      <c r="B10" s="5">
         <v>1004</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5">
         <v>1005</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5">
         <v>1006</v>
       </c>
       <c r="C12" s="8">
@@ -798,147 +1368,120 @@
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="5">
         <v>1007</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="5">
         <v>1008</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>1009</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="2:7">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -984,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="2:7">
       <c r="B4" s="5">
         <v>300</v>
       </c>
@@ -1018,16 +1561,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="2:7">
       <c r="B5" s="5">
         <v>301</v>
       </c>
@@ -1038,16 +1581,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="14.25" spans="2:7">
       <c r="B6" s="5">
         <v>302</v>
       </c>
@@ -1058,16 +1601,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" ht="14.25" spans="2:7">
       <c r="B7" s="5">
         <v>303</v>
       </c>
@@ -1078,16 +1621,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" ht="14.25" spans="2:7">
       <c r="B8" s="5">
         <v>304</v>
       </c>
@@ -1098,17 +1641,17 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Map1</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -145,7 +151,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,12 +172,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -628,52 +628,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,83 +682,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
@@ -776,10 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1133,20 +1129,20 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6296296296296" style="7" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1166,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" s="3" customFormat="1" ht="14.4" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1190,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1252,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5"/>
@@ -1384,10 +1380,10 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="5"/>
@@ -1410,16 +1406,40 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:7">
+      <c r="B15" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7">
@@ -1479,7 +1499,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1550,7 +1570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:7">
+    <row r="4" spans="2:7">
       <c r="B4" s="5">
         <v>300</v>
       </c>
@@ -1561,16 +1581,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:7">
+    <row r="5" spans="2:7">
       <c r="B5" s="5">
         <v>301</v>
       </c>
@@ -1581,16 +1601,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:7">
+    <row r="6" spans="2:7">
       <c r="B6" s="5">
         <v>302</v>
       </c>
@@ -1601,16 +1621,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:7">
+    <row r="7" spans="2:7">
       <c r="B7" s="5">
         <v>303</v>
       </c>
@@ -1621,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:7">
+    <row r="8" spans="2:7">
       <c r="B8" s="5">
         <v>304</v>
       </c>
@@ -1641,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>
